--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1977480.184896587</v>
+        <v>1975228.10518538</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283179</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>114.4918089738213</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>79.76470074482832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -868,22 +868,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>82.26790245020096</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>158.2598945289029</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157577</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673322</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>42.86209348694693</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177672</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.1690567639045</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>196.9899243971805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>216.4795114578129</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740369</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>140.7158229532356</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>166.3208822291565</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176295</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327287</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>87.21471514853209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576417</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340534</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>13.74238375877729</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E43" t="n">
-        <v>80.08971311158757</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.6472505928856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,19 +4346,19 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
         <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4401,19 +4401,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962484</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034577</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622242</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3044.089480193524</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>3044.089480193524</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>2960.990588829685</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>2671.573418792724</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>2671.573418792724</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792724</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,19 +4562,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4759,16 +4759,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1091.613680441807</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1091.613680441807</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1091.613680441807</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1091.613680441807</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348092</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9279362553159</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>363.7369613277377</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>363.7369613277377</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>216.8470138298274</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>216.8470138298274</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038363</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797765</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X16" t="n">
-        <v>1002.147000709601</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y16" t="n">
-        <v>781.3544215660705</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="17">
@@ -5510,19 +5510,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5744,40 +5744,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.928827395878</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510513</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304626</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267665</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369648</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261177</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168619</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,28 +6212,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6248,25 +6248,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6494,7 +6494,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6622,49 +6622,49 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038366</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797767</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171305</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892237</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782971</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038358</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6917,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362689</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075794</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>565.7099969556949</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>565.7099969556949</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000582</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518967</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9259388694754023</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218693</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>84.99383243580152</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9259388694713664</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948062</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>138.4949402405051</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944531</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788392</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>134.8730892594351</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E43" t="n">
-        <v>66.3442495349816</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>18.61858572567992</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>858482.9210447284</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.9210447283</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049985</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049986</v>
-      </c>
-      <c r="C2" t="n">
-        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830047</v>
       </c>
-      <c r="G2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830047</v>
       </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.619783005</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830046</v>
@@ -26347,13 +26347,13 @@
         <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="O2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830047</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
@@ -26436,7 +26436,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680576</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26445,13 +26445,13 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
+        <v>11776.9762168058</v>
+      </c>
+      <c r="M4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="M4" t="n">
-        <v>11776.97621680584</v>
-      </c>
       <c r="N4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-952913.4583721444</v>
+        <v>-952913.4583721445</v>
       </c>
       <c r="C6" t="n">
-        <v>375831.287355448</v>
+        <v>375831.2873554482</v>
       </c>
       <c r="D6" t="n">
         <v>375831.2873554481</v>
       </c>
       <c r="E6" t="n">
-        <v>126690.651934936</v>
+        <v>126655.9140095007</v>
       </c>
       <c r="F6" t="n">
-        <v>452103.1137422918</v>
+        <v>452068.3758168558</v>
       </c>
       <c r="G6" t="n">
-        <v>452103.1137422915</v>
+        <v>452068.375816856</v>
       </c>
       <c r="H6" t="n">
-        <v>452103.1137422918</v>
+        <v>452068.3758168559</v>
       </c>
       <c r="I6" t="n">
-        <v>452103.1137422916</v>
+        <v>452068.3758168559</v>
       </c>
       <c r="J6" t="n">
-        <v>234571.9113450142</v>
+        <v>234537.1734195786</v>
       </c>
       <c r="K6" t="n">
-        <v>452103.1137422914</v>
+        <v>452068.3758168563</v>
       </c>
       <c r="L6" t="n">
-        <v>452103.1137422916</v>
+        <v>452068.375816856</v>
       </c>
       <c r="M6" t="n">
-        <v>367048.0858067797</v>
+        <v>367013.347881344</v>
       </c>
       <c r="N6" t="n">
-        <v>452103.1137422915</v>
+        <v>452068.3758168556</v>
       </c>
       <c r="O6" t="n">
-        <v>452103.1137422918</v>
+        <v>452068.3758168559</v>
       </c>
       <c r="P6" t="n">
-        <v>452103.1137422916</v>
+        <v>452068.375816856</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26805,19 +26805,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>306.4732379112253</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>169.8697408736271</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>60.3247588231919</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062660006</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718946</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>209.2755498368811</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029158</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.244869107018286e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29694,13 +29694,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32315,28 +32315,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32476,7 +32476,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175677</v>
@@ -32546,16 +32546,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32707,7 +32707,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817577</v>
@@ -32783,10 +32783,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>508.3747716989726</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33889,13 +33889,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
         <v>867.8464071162563</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>172.8142548092788</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175677</v>
@@ -34208,22 +34208,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
@@ -34232,7 +34232,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
@@ -34442,31 +34442,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35504,13 +35504,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096369</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191315</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
         <v>735.300110790295</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060496</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36364,7 +36364,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.65947400496659</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>369.8203919190984</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,13 +36990,13 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096372</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
         <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010465</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
@@ -37075,7 +37075,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193518</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295474</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37783,7 +37783,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
         <v>735.300110790295</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38032,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789214</v>
